--- a/样例清单.xlsx
+++ b/样例清单.xlsx
@@ -5,23 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FileServer\Git\Fusioninsight_HD_Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="12" windowWidth="14988" windowHeight="8580"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="14985" windowHeight="8580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HDFS" sheetId="2" r:id="rId1"/>
     <sheet name="HBase" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Spark" sheetId="3" r:id="rId3"/>
+    <sheet name="Hive" sheetId="4" r:id="rId4"/>
+    <sheet name="Kafka" sheetId="5" r:id="rId5"/>
+    <sheet name="离线批处理" sheetId="6" r:id="rId6"/>
+    <sheet name="交互查询" sheetId="7" r:id="rId7"/>
+    <sheet name="GaussDB" sheetId="8" r:id="rId8"/>
+    <sheet name="Flink" sheetId="11" r:id="rId9"/>
+    <sheet name="Mapreduce" sheetId="12" r:id="rId10"/>
+    <sheet name="redis" sheetId="13" r:id="rId11"/>
+    <sheet name="ES" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="206">
   <si>
     <t>序号</t>
   </si>
@@ -288,6 +297,383 @@
   <si>
     <t>功能简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从Hbase表中读取数据，然后进过Spark处理后，在存储到Hbase表中</t>
+  </si>
+  <si>
+    <t>spark的使用案例，包括：spark的操作对象和算子之间的转换。</t>
+  </si>
+  <si>
+    <t>从HDFS读取数据，经过Spark处理以后，数据通过SparkSQL创建成临时表</t>
+  </si>
+  <si>
+    <t>从HDFS读取数据，经过SparkSstream处理。</t>
+  </si>
+  <si>
+    <t>SparkHbaseJavaExample文件夹：com.huawei.bigdata.spark.example.SparkHbaseJavaExample</t>
+  </si>
+  <si>
+    <t>SparkJavaExample文件夹：com.huawei.bigdata.spark.example.SparkJavaExample</t>
+  </si>
+  <si>
+    <t>SparkSQLJavaExample文件夹：com.huawei.bigdata.spark.example.SparkSQLJavaExample</t>
+  </si>
+  <si>
+    <t>SparkStreamJavaExample文件夹：com.huawei.bigdata.example.sparksteaming.ASparkStreamingDemoForDoc</t>
+  </si>
+  <si>
+    <t>SparkStreamJavaExample文件夹：com.huawei.bigdata.spark.example.sparksteaming.FemaleInfoCollection.FemaleInfoCollectionKafka</t>
+  </si>
+  <si>
+    <t>SparkStreamJavaExample文件夹：com.huawei.bigdata.spark.example.sparksteaming.FemaleInfoCollection.FemaleInfoCollectionPrint</t>
+  </si>
+  <si>
+    <t>SparkStreaming与kafka生产者结合使用的案例</t>
+  </si>
+  <si>
+    <t>SparkStreaming与kafka消费者结合使用的案例</t>
+  </si>
+  <si>
+    <t>SparkStreamJavaExample文件夹：com.huawei.bigdata.spark.example.sparksteaming.FemaleInfoCollection.StreamingExampleProducer</t>
+  </si>
+  <si>
+    <t>Spark与ES结合使用的案例</t>
+  </si>
+  <si>
+    <t>通过Hcatalog从hive表读取数据，经过mapreduce处理后，在经过Hcatalog存储到Hive表中。</t>
+  </si>
+  <si>
+    <t>hcatalog-example-maven-security：com.huawei.bigdata.hcatalog.examples.HCatalogExample</t>
+  </si>
+  <si>
+    <t>从hive的t1表中读取数据，经过处理后，存储到t2表中。</t>
+  </si>
+  <si>
+    <t>hive-jdbc-example-maven-security文件夹：com.huawei.bigdata.hive.examples.JDBCExample</t>
+  </si>
+  <si>
+    <t>kafka生产者的样例代码</t>
+  </si>
+  <si>
+    <t>kafka消费者的样例代码</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.examples.kafka.demofordoc.AProducerDemoForDoc</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.examples.kafka.demofordoc.AConsumerDemoForDoc</t>
+  </si>
+  <si>
+    <t>从HDFS加载数据，spark处理数据后，经过SparkSQL生成临时表。</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>solution/offineProcessionJava文件夹：com.huawei.bigdata.spark.examples.SparkToSparkSQL</t>
+  </si>
+  <si>
+    <t>从HDFS加载数据，mapreduce处理数据后，经过Hive生成数据表。（可以长时间保存）</t>
+  </si>
+  <si>
+    <t>通过Kafka的消费者从topic获取数据，然后经过sparksteaming接受处理，最后经过sparksql生成临时表</t>
+  </si>
+  <si>
+    <t>数据流：HDFS-kafka-Sparksteam</t>
+  </si>
+  <si>
+    <t>数据流：HDFS-ELK</t>
+  </si>
+  <si>
+    <t>从Hdfs读出数据后，经过Kafka的生产者将数据发送出去。</t>
+  </si>
+  <si>
+    <t>solutions/interactiveQuery/InterQueryJavaSparkSQL文件夹：com.huawei.bigdata.kafkaToSpark.HDFSToSpark</t>
+  </si>
+  <si>
+    <t>solutions/interactiveQuery/InterQueryJavaSparkSQL文件夹：com.huawei.bigdata.kafkaToSpark.KafkaStream</t>
+  </si>
+  <si>
+    <t>整理中</t>
+  </si>
+  <si>
+    <t>介绍gaussDB通过jdbc连接的样例代码</t>
+  </si>
+  <si>
+    <t>gaussDB200文件夹：com.huawei.bigdata.gaussDB.ConnectToDatabase</t>
+  </si>
+  <si>
+    <t>介绍gaussDB一些简单的操作：创建表、批插数据、更新数据、存储过程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaussDB200文件夹：com.huawei.bigdata.gaussDB.GaussDBSolution </t>
+  </si>
+  <si>
+    <t>DataStream程序</t>
+  </si>
+  <si>
+    <t>FlinkStreamxxxExample文件夹
+com.huawei.bigdata.flink.examples.FlinkStreamJavaExample</t>
+  </si>
+  <si>
+    <t>向Kafka生产并消费数据程序</t>
+  </si>
+  <si>
+    <t>FlinkKafkaxxxExample文件夹
+com.huawei.bigdata.flink.examples.WriteIntoKafka
+com.huawei.bigdata.flink.examples.ReadFromKafka</t>
+  </si>
+  <si>
+    <t>异步Checkpoint机制程序</t>
+  </si>
+  <si>
+    <t>FlinkCheckpointxxxExample文件夹
+com.huawei.bigdata.flink.examples.FlinkProcessingTimeAPIChkMain com.huawei.bigdata.flink.examples.SEventSourceWithChk
+com.huawei.bigdata.flink.examples.UDFState
+com.huawei.bigdata.flink.examples.WindowStatisticWithChk</t>
+  </si>
+  <si>
+    <t>Job Pipeline程序</t>
+  </si>
+  <si>
+    <t>FlinkPipelinexxxExample文件夹
+com.huawei.bigdata.flink.examples.UserSource。
+com.huawei.bigdata.flink.examples.TestPipeline_NettySink。
+com.huawei.bigdata.flink.examples.TestPipeline_NettySource1。
+com.huawei.bigdata.flink.examples.TestPipeline_NettySource2。</t>
+  </si>
+  <si>
+    <t>配置表与流JOIN程序</t>
+  </si>
+  <si>
+    <t>FlinkConfigtablexxxExample文件夹
+com.huawei.bigdata.flink.examples.RedisDataImport
+com.huawei.bigdata.flink.examples.FlinkConfigtableJavaExample</t>
+  </si>
+  <si>
+    <t>Stream SQL Join程序</t>
+  </si>
+  <si>
+    <t>FlinkStreamSQLxxxExample文件夹
+com.huawei.bigdata.flink.examples.WriteIntoKafka
+com.huawei.bigdata.flink.examples.SqlJoinWithSocket</t>
+  </si>
+  <si>
+    <t>MapReduce统计样例程序</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.mapreduce.examples.FemaleInfoCollector</t>
+  </si>
+  <si>
+    <t>MapReduce访问多组件样例程序</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.mapreduce.examples.MultiComponentExample</t>
+  </si>
+  <si>
+    <t>MapReduce-to-solr样例程序</t>
+  </si>
+  <si>
+    <t>mapreduce-to-solr文件夹com.huawei.bigdata.mapreduce.examples.MapReduceToSolr</t>
+  </si>
+  <si>
+    <t>Redis集群初始化</t>
+  </si>
+  <si>
+    <t>样例工程的com.huawei.redis.demo包的RedisTest类的RedisTest方法中</t>
+  </si>
+  <si>
+    <t>String类型存取</t>
+  </si>
+  <si>
+    <t>样例工程的com.huawei.redis.demo包的RedisTest类的testString方法中</t>
+  </si>
+  <si>
+    <t>List类型存取</t>
+  </si>
+  <si>
+    <t>样例工程的com.huawei.redis.demo包的RedisTest类的testList方法中</t>
+  </si>
+  <si>
+    <t>Hash类型存取</t>
+  </si>
+  <si>
+    <t>样例工程的com.huawei.redis.demo包的RedisTest类的testHash方法中</t>
+  </si>
+  <si>
+    <t>Set类型存取</t>
+  </si>
+  <si>
+    <t>样例工程的com.huawei.redis.demo包的RedisTest类的testSet方法中</t>
+  </si>
+  <si>
+    <t>Sorted Set类型存取</t>
+  </si>
+  <si>
+    <t>样例工程的com.huawei.redis.demo包的RedisTest类的testSortedSet方法中</t>
+  </si>
+  <si>
+    <t>Key操作</t>
+  </si>
+  <si>
+    <t>样例工程的com.huawei.redis.demo包的RedisTest类的testKey方法中</t>
+  </si>
+  <si>
+    <t>Pipeline操作</t>
+  </si>
+  <si>
+    <t>样例工程的com.huawei.redis.demo包的RedisTest类的testPipeline方法中</t>
+  </si>
+  <si>
+    <t>客户端连接集群</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientTest:getRestClient();</t>
+  </si>
+  <si>
+    <t>查询集群健康状态</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientTest:queryEsClusterHealth(RestClient restClientTest);</t>
+  </si>
+  <si>
+    <t>检查指定索引是否存在</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientTest:exist(RestClient restClientTest);</t>
+  </si>
+  <si>
+    <t>创建指定分片数目的索引</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientTest:createIndexWithShardNum(RestClient restClientTest);</t>
+  </si>
+  <si>
+    <t>更新文档索引</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientTest:putData(RestClient restClientTest);;</t>
+  </si>
+  <si>
+    <t>批量写入数据</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientTest:bulk(RestClient restClientTest);</t>
+  </si>
+  <si>
+    <t>查询文档索引信息</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientTest:queryData(RestClient restClientTest);</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientTest:delete(RestClient restClientTest);</t>
+  </si>
+  <si>
+    <t>多线程样例</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.RestClientMultithreadTest</t>
+  </si>
+  <si>
+    <t>更多查询：</t>
+  </si>
+  <si>
+    <t>单词查询</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.morequerypattern.WordQuery</t>
+  </si>
+  <si>
+    <t>多词查询</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.morequerypattern.MultiWordQuery</t>
+  </si>
+  <si>
+    <t>短语查询（精确匹配）</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.morequerypattern.PhraseQuery</t>
+  </si>
+  <si>
+    <t>组合查询</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.morequerypattern.CombinedQuery</t>
+  </si>
+  <si>
+    <t>多字段查询</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.morequerypattern.MultiFieldQuery</t>
+  </si>
+  <si>
+    <t>模糊查询</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.morequerypattern.FuzzyQuery</t>
+  </si>
+  <si>
+    <t>范围查询</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.morequerypattern.RangeQuery</t>
+  </si>
+  <si>
+    <t>更多操作：</t>
+  </si>
+  <si>
+    <t>多表操作</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.moreoperationpattern.MultiTableOperation</t>
+  </si>
+  <si>
+    <t>聚合操作</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.moreoperationpattern.AggregationOperation</t>
+  </si>
+  <si>
+    <t>过滤操作</t>
+  </si>
+  <si>
+    <t>com.huawei.bigdata.elasticsearch.moreoperationpattern.FilterOperation</t>
+  </si>
+  <si>
+    <t>SparkToEsJavaExamplewen文件夹：com.huawei.bigdata.spark.example.SparkToEs</t>
+  </si>
+  <si>
+    <t>从HDFS获取数据，存储到ELK，并查询</t>
+  </si>
+  <si>
+    <t>演示通过Hcatalog，把MR生成的结果，插入到Hive中。</t>
+  </si>
+  <si>
+    <t>solution/offineProcessingJavaMrAndHive文件夹：com.huawei.bigdata.local.MapReduceToHive</t>
+  </si>
+  <si>
+    <t>solution/offineProcessingJavaMrAndHive文件夹：com.huawei.bigdata.local.LocalRunner  solution/offineProcessingJavaMrAndHive文件夹：com.huawei.bigdata.hive.MapReduceToHivePromotion（mr的map和reduce的类）</t>
+  </si>
+  <si>
+    <t>通过Spark往Hbase里面创建表。</t>
+  </si>
+  <si>
+    <t>通过Spark往Hbase的指定表中导入数据。</t>
+  </si>
+  <si>
+    <t>通过Spark从Hbase中读出数据。</t>
+  </si>
+  <si>
+    <t>SparkOnHbaseJavaExample文件夹：com.huawei.bigdata.spark.examples.TableCreation</t>
+  </si>
+  <si>
+    <t>SparkOnHbaseJavaExample文件夹：com.huawei.bigdata.spark.examples.TableInputData</t>
+  </si>
+  <si>
+    <t>SparkOnHbaseJavaExample文件夹：com.huawei.bigdata.spark.examples.TableOutputData</t>
   </si>
 </sst>
 </file>
@@ -327,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -350,13 +736,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +791,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,20 +1116,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="11"/>
+    <col min="1" max="1" width="8.75" style="11"/>
     <col min="2" max="2" width="36" style="9" customWidth="1"/>
     <col min="3" max="3" width="62" style="11" customWidth="1"/>
-    <col min="4" max="4" width="37.19921875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="11"/>
+    <col min="4" max="4" width="37.25" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -730,7 +1143,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -742,7 +1155,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -754,7 +1167,7 @@
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -766,7 +1179,7 @@
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -778,7 +1191,7 @@
       </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -790,7 +1203,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -802,7 +1215,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -814,7 +1227,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -826,7 +1239,7 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -838,7 +1251,7 @@
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -850,7 +1263,7 @@
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -862,7 +1275,7 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -874,27 +1287,27 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="C19" s="9"/>
     </row>
@@ -910,6 +1323,449 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
+    <col min="3" max="3" width="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="93.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="52.25" customWidth="1"/>
+    <col min="3" max="3" width="130.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
@@ -918,16 +1774,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="93.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="82.69921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="93.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="82.75" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -941,7 +1797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -955,7 +1811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -969,7 +1825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -983,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -997,7 +1853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1011,7 +1867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1025,7 +1881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1039,7 +1895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1053,7 +1909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1067,7 +1923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1081,7 +1937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1095,7 +1951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1109,7 +1965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1123,7 +1979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1137,7 +1993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1151,7 +2007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1165,7 +2021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1179,7 +2035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1193,7 +2049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1208,14 +2064,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="3" max="3" width="106.75" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1225,4 +2223,421 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="76.875" customWidth="1"/>
+    <col min="3" max="3" width="104.5" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="52.75" customWidth="1"/>
+    <col min="3" max="3" width="73.5" customWidth="1"/>
+    <col min="4" max="4" width="53.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="75.5" customWidth="1"/>
+    <col min="3" max="3" width="103.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="91.375" customWidth="1"/>
+    <col min="3" max="3" width="117" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="81.625" customWidth="1"/>
+    <col min="3" max="3" width="72.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="109.125" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="62.25" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>